--- a/manufacturing files/power/PickAndPlace_PCB2_2023-10-15.xlsx
+++ b/manufacturing files/power/PickAndPlace_PCB2_2023-10-15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="PickAndPlace_PCB2_2023-10-15" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="PickAndPlace_PCB2_2023-10-16" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
